--- a/inst/extdata/electricity consumption by sector 2025.xlsx
+++ b/inst/extdata/electricity consumption by sector 2025.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A77513E-D2FC-4D3B-B638-567C51CE6B1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1DE2D27-9EE0-492E-B4CD-7B54200E44C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="272">
   <si>
     <t>Country</t>
   </si>
@@ -866,16 +866,13 @@
     <t>Update</t>
   </si>
   <si>
-    <t>2025-01-02</t>
-  </si>
-  <si>
     <t>2024-05-30</t>
   </si>
   <si>
     <t>2017-12-18</t>
   </si>
   <si>
-    <t>2025-01-20</t>
+    <t>2025-01-26</t>
   </si>
 </sst>
 </file>
@@ -3724,388 +3721,388 @@
         <v>268</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="D8" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="P8" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q8" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="R8" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="S8" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="T8" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="U8" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="V8" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="W8" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="X8" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="Y8" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="Z8" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="AA8" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="AB8" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="AC8" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="AD8" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="AE8" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="AF8" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="AG8" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="AH8" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="AI8" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="AJ8" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="AK8" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="AL8" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="AM8" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="AN8" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="AO8" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="AP8" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="AQ8" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="AR8" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="AS8" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="AT8" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="AU8" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="AV8" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="AW8" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="AX8" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="AY8" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="AZ8" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="BA8" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="BB8" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="BC8" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="BD8" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="BE8" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="BF8" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="BG8" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="BH8" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="BI8" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="BJ8" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="BK8" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="BL8" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="BM8" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="BN8" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="BO8" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="BP8" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="BQ8" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="BR8" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="BS8" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="BT8" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="BU8" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="BV8" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="BW8" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="BX8" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="BY8" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="BZ8" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="CA8" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="CB8" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="CC8" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="CD8" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="CE8" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="CF8" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="CG8" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="CH8" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="CI8" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="CJ8" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="CK8" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="CL8" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="CM8" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="CN8" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="CO8" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="CP8" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="CQ8" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="CR8" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="CS8" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="CT8" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="CU8" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="CV8" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="CW8" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="CX8" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="CY8" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="CZ8" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="DA8" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="DB8" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="DC8" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="DD8" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="DE8" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="I8" s="5" t="s">
+      <c r="DF8" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="DG8" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="DH8" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="DI8" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="J8" s="5" t="s">
+      <c r="DJ8" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="DK8" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="K8" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="N8" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="O8" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="P8" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="Q8" s="5" t="s">
+      <c r="DL8" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="R8" s="5" t="s">
+      <c r="DM8" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="S8" s="5" t="s">
+      <c r="DN8" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="T8" s="5" t="s">
+      <c r="DO8" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="U8" s="5" t="s">
+      <c r="DP8" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="V8" s="5" t="s">
+      <c r="DQ8" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="W8" s="5" t="s">
+      <c r="DR8" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="X8" s="5" t="s">
+      <c r="DS8" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="Y8" s="5" t="s">
+      <c r="DT8" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="Z8" s="5" t="s">
+      <c r="DU8" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="AA8" s="5" t="s">
+      <c r="DV8" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="DW8" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="AB8" s="5" t="s">
+      <c r="DX8" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="AC8" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="AD8" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="AE8" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="AF8" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="AG8" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="AH8" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="AI8" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="AJ8" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="AK8" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="AL8" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="AM8" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="AN8" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="AO8" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="AP8" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="AQ8" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="AR8" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="AS8" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="AT8" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="AU8" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="AV8" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="AW8" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="AX8" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="AY8" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="AZ8" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="BA8" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="BB8" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="BC8" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="BD8" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="BE8" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="BF8" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="BG8" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="BH8" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="BI8" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="BJ8" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="BK8" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="BL8" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="BM8" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="BN8" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="BO8" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="BP8" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="BQ8" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="BR8" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="BS8" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="BT8" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="BU8" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="BV8" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="BW8" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="BX8" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="BY8" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="BZ8" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="CA8" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="CB8" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="CC8" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="CD8" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="CE8" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="CF8" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="CG8" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="CH8" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="CI8" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="CJ8" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="CK8" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="CL8" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="CM8" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="CN8" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="CO8" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="CP8" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="CQ8" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="CR8" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="CS8" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="CT8" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="CU8" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="CV8" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="CW8" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="CX8" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="CY8" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="CZ8" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="DA8" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="DB8" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="DC8" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="DD8" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="DE8" s="5" t="s">
+      <c r="DY8" s="5" t="s">
         <v>271</v>
-      </c>
-      <c r="DF8" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="DG8" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="DH8" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="DI8" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="DJ8" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="DK8" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="DL8" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="DM8" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="DN8" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="DO8" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="DP8" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="DQ8" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="DR8" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="DS8" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="DT8" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="DU8" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="DV8" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="DW8" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="DX8" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="DY8" s="5" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="9" spans="1:129">
@@ -89304,7 +89301,7 @@
         <v>45657</v>
       </c>
       <c r="B228" s="3">
-        <v>0</v>
+        <v>1504911.0591</v>
       </c>
       <c r="C228" s="3">
         <v>0</v>
@@ -89325,10 +89322,10 @@
         <v>0</v>
       </c>
       <c r="I228" s="3">
-        <v>0</v>
+        <v>56651188.933799997</v>
       </c>
       <c r="J228" s="3">
-        <v>0</v>
+        <v>2742717.2988</v>
       </c>
       <c r="K228" s="3">
         <v>0</v>
@@ -89349,55 +89346,55 @@
         <v>0</v>
       </c>
       <c r="Q228" s="3">
-        <v>0</v>
+        <v>42103573.321699999</v>
       </c>
       <c r="R228" s="3">
-        <v>0</v>
+        <v>792208.44389999995</v>
       </c>
       <c r="S228" s="3">
-        <v>0</v>
+        <v>497663.58250000002</v>
       </c>
       <c r="T228" s="3">
-        <v>0</v>
+        <v>147504.41269999999</v>
       </c>
       <c r="U228" s="3">
-        <v>0</v>
+        <v>29211.100299999998</v>
       </c>
       <c r="V228" s="3">
-        <v>0</v>
+        <v>368321.5477</v>
       </c>
       <c r="W228" s="3">
-        <v>0</v>
+        <v>224321.05549999999</v>
       </c>
       <c r="X228" s="3">
-        <v>0</v>
+        <v>390293.71860000002</v>
       </c>
       <c r="Y228" s="3">
-        <v>0</v>
+        <v>217502.8481</v>
       </c>
       <c r="Z228" s="3">
-        <v>0</v>
+        <v>1745242.7716000001</v>
       </c>
       <c r="AA228" s="3">
-        <v>0</v>
+        <v>891249.33649999998</v>
       </c>
       <c r="AB228" s="3">
-        <v>0</v>
+        <v>147312.63380000001</v>
       </c>
       <c r="AC228" s="3">
-        <v>0</v>
+        <v>174767.9608</v>
       </c>
       <c r="AD228" s="3">
         <v>0</v>
       </c>
       <c r="AE228" s="3">
-        <v>0</v>
+        <v>1809296.8483</v>
       </c>
       <c r="AF228" s="3">
         <v>0</v>
       </c>
       <c r="AG228" s="3">
-        <v>0</v>
+        <v>5288678.8806999996</v>
       </c>
       <c r="AH228" s="3">
         <v>0</v>
@@ -89412,7 +89409,7 @@
         <v>0</v>
       </c>
       <c r="AL228" s="3">
-        <v>0</v>
+        <v>524486.69290000002</v>
       </c>
       <c r="AM228" s="3">
         <v>0</v>
@@ -89421,10 +89418,10 @@
         <v>0</v>
       </c>
       <c r="AO228" s="3">
-        <v>0</v>
+        <v>455492.76079999999</v>
       </c>
       <c r="AP228" s="3">
-        <v>0</v>
+        <v>1718476.8377</v>
       </c>
       <c r="AQ228" s="3">
         <v>0</v>
@@ -89433,7 +89430,7 @@
         <v>0</v>
       </c>
       <c r="AS228" s="3">
-        <v>0</v>
+        <v>3400225.2958</v>
       </c>
       <c r="AT228" s="3">
         <v>0</v>
@@ -89448,7 +89445,7 @@
         <v>0</v>
       </c>
       <c r="AX228" s="3">
-        <v>0</v>
+        <v>5614189.5115</v>
       </c>
       <c r="AY228" s="3">
         <v>0</v>
@@ -89457,7 +89454,7 @@
         <v>0</v>
       </c>
       <c r="BA228" s="3">
-        <v>0</v>
+        <v>7027743.6467000004</v>
       </c>
       <c r="BB228" s="3">
         <v>0</v>
@@ -89469,31 +89466,31 @@
         <v>0</v>
       </c>
       <c r="BE228" s="3">
-        <v>0</v>
+        <v>2432807.2993000001</v>
       </c>
       <c r="BF228" s="3">
         <v>0</v>
       </c>
       <c r="BG228" s="3">
-        <v>0</v>
+        <v>1220746.1052000001</v>
       </c>
       <c r="BH228" s="3">
         <v>0</v>
       </c>
       <c r="BI228" s="3">
-        <v>0</v>
+        <v>443269.23489999998</v>
       </c>
       <c r="BJ228" s="3">
         <v>0</v>
       </c>
       <c r="BK228" s="3">
-        <v>0</v>
+        <v>851879.16850000003</v>
       </c>
       <c r="BL228" s="3">
         <v>0</v>
       </c>
       <c r="BM228" s="3">
-        <v>0</v>
+        <v>338861.4693</v>
       </c>
       <c r="BN228" s="3">
         <v>0</v>
@@ -89505,13 +89502,13 @@
         <v>0</v>
       </c>
       <c r="BQ228" s="3">
-        <v>0</v>
+        <v>1715979.4985</v>
       </c>
       <c r="BR228" s="3">
         <v>0</v>
       </c>
       <c r="BS228" s="3">
-        <v>0</v>
+        <v>2436710.9314999999</v>
       </c>
       <c r="BT228" s="3">
         <v>0</v>
@@ -89520,19 +89517,19 @@
         <v>0</v>
       </c>
       <c r="BV228" s="3">
-        <v>0</v>
+        <v>84499.215100000001</v>
       </c>
       <c r="BW228" s="3">
-        <v>0</v>
+        <v>840757.74569999997</v>
       </c>
       <c r="BX228" s="3">
-        <v>0</v>
+        <v>189416.6213</v>
       </c>
       <c r="BY228" s="3">
-        <v>0</v>
+        <v>84457.9467</v>
       </c>
       <c r="BZ228" s="3">
-        <v>0</v>
+        <v>11804897.3203</v>
       </c>
       <c r="CA228" s="3">
         <v>0</v>
@@ -89553,7 +89550,7 @@
         <v>0</v>
       </c>
       <c r="CG228" s="3">
-        <v>0</v>
+        <v>951711.22129999998</v>
       </c>
       <c r="CH228" s="3">
         <v>0</v>
@@ -89568,7 +89565,7 @@
         <v>0</v>
       </c>
       <c r="CL228" s="3">
-        <v>0</v>
+        <v>2192978.5477</v>
       </c>
       <c r="CM228" s="3">
         <v>0</v>
@@ -89601,7 +89598,7 @@
         <v>0</v>
       </c>
       <c r="CW228" s="3">
-        <v>0</v>
+        <v>1433118.1612</v>
       </c>
       <c r="CX228" s="3">
         <v>0</v>
@@ -89616,31 +89613,31 @@
         <v>0</v>
       </c>
       <c r="DB228" s="3">
-        <v>0</v>
+        <v>3660983.7052000002</v>
       </c>
       <c r="DC228" s="3">
         <v>0</v>
       </c>
       <c r="DD228" s="3">
-        <v>0</v>
+        <v>1066321.0336</v>
       </c>
       <c r="DE228" s="3">
         <v>0</v>
       </c>
       <c r="DF228" s="3">
-        <v>0</v>
+        <v>198008.26240000001</v>
       </c>
       <c r="DG228" s="3">
-        <v>0</v>
+        <v>1779491.6391</v>
       </c>
       <c r="DH228" s="3">
-        <v>0</v>
+        <v>789104.83169999998</v>
       </c>
       <c r="DI228" s="3">
         <v>0</v>
       </c>
       <c r="DJ228" s="3">
-        <v>0</v>
+        <v>4912996.5087000001</v>
       </c>
       <c r="DK228" s="3">
         <v>0</v>
@@ -89676,7 +89673,7 @@
         <v>0</v>
       </c>
       <c r="DV228" s="3">
-        <v>13210000</v>
+        <v>13211477.3879</v>
       </c>
       <c r="DW228" s="3">
         <v>0</v>
@@ -89685,7 +89682,7 @@
         <v>0</v>
       </c>
       <c r="DY228" s="3">
-        <v>88350000</v>
+        <v>88352290.766499996</v>
       </c>
     </row>
   </sheetData>
